--- a/permisos.xlsx
+++ b/permisos.xlsx
@@ -4,32 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Nivel 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Nivel 1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$103</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="148">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>titulo</t>
-  </si>
-  <si>
-    <t>nivel</t>
-  </si>
-  <si>
-    <t>padre</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="143">
   <si>
     <t>Aplicaciones</t>
   </si>
@@ -799,37 +789,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E103"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E101" sqref="B46:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+        <v>131</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -838,12 +836,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -854,24 +852,27 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -880,539 +881,539 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
         <v>54</v>
@@ -1421,75 +1422,75 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>6</v>
-      </c>
-      <c r="E38" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1497,814 +1498,811 @@
         <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
         <v>68</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
         <v>4</v>
-      </c>
-      <c r="E48" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
       <c r="D52">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
       <c r="D53">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
       <c r="D55">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
         <v>90</v>
-      </c>
-      <c r="B56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-      <c r="D56">
-        <v>86</v>
-      </c>
-      <c r="E56" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
       <c r="D57">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
       <c r="D58">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="E58" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E59" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
       <c r="D60">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
       <c r="D62">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="E62" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="E63" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
       <c r="D64">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="E64" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
       <c r="D65">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="E65" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
+        <v>98</v>
+      </c>
+      <c r="B67" t="s">
         <v>63</v>
       </c>
-      <c r="B67" t="s">
-        <v>96</v>
-      </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="E68" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E69" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>56</v>
-      </c>
-      <c r="E71" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
+        <v>18</v>
+      </c>
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>22</v>
+      </c>
+      <c r="E72" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>67</v>
+      </c>
+      <c r="B74" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>53</v>
+      </c>
+      <c r="B76" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
         <v>109</v>
       </c>
-      <c r="B72" t="s">
-        <v>106</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>45</v>
-      </c>
-      <c r="B73" t="s">
-        <v>107</v>
-      </c>
-      <c r="C73">
-        <v>2</v>
-      </c>
-      <c r="D73">
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>95</v>
+      </c>
+      <c r="B83" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>54</v>
+      </c>
+      <c r="B84" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>55</v>
+      </c>
+      <c r="B85" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>96</v>
+      </c>
+      <c r="B86" t="s">
+        <v>117</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>94</v>
+      </c>
+      <c r="B88" t="s">
+        <v>119</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>56</v>
+      </c>
+      <c r="B90" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>86</v>
+      </c>
+      <c r="B91" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>8</v>
       </c>
-      <c r="E73" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
-        <v>109</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>67</v>
-      </c>
-      <c r="B75" t="s">
-        <v>110</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>79</v>
-      </c>
-      <c r="B76" t="s">
-        <v>111</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>53</v>
-      </c>
-      <c r="B77" t="s">
-        <v>112</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>80</v>
-      </c>
-      <c r="B78" t="s">
-        <v>113</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>114</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>9</v>
-      </c>
-      <c r="B80" t="s">
-        <v>115</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>7</v>
-      </c>
-      <c r="B81" t="s">
-        <v>116</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>2</v>
-      </c>
-      <c r="B82" t="s">
-        <v>117</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>1</v>
-      </c>
-      <c r="B83" t="s">
-        <v>118</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>95</v>
-      </c>
-      <c r="B84" t="s">
-        <v>119</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>54</v>
-      </c>
-      <c r="B85" t="s">
-        <v>120</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>55</v>
-      </c>
-      <c r="B86" t="s">
-        <v>121</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>96</v>
-      </c>
-      <c r="B87" t="s">
-        <v>122</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>5</v>
-      </c>
-      <c r="B88" t="s">
-        <v>123</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>94</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="B93" t="s">
         <v>124</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>4</v>
-      </c>
-      <c r="B90" t="s">
-        <v>125</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>56</v>
-      </c>
-      <c r="B91" t="s">
-        <v>126</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>86</v>
-      </c>
-      <c r="B92" t="s">
-        <v>127</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>3</v>
-      </c>
-      <c r="B93" t="s">
-        <v>128</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -2315,172 +2313,1966 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B94" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="E94" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B95" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="D95">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E95" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="B96" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E96" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B97" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
       <c r="D97">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E97" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E98" t="s">
-        <v>137</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E99" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B100" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E100" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B101" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E101" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <autoFilter ref="A1:F103">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A1:E102">
+    <sortCondition ref="E1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="str">
+        <f>"('"&amp;A1&amp;"',"&amp;B1&amp;","&amp;C1&amp;",'"&amp;D1&amp;"'),"</f>
+        <v>('Buscar',2,1,'aplicaciones/vistas/FBuscarPPAplicacion'),</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F65" si="0">"('"&amp;A2&amp;"',"&amp;B2&amp;","&amp;C2&amp;",'"&amp;D2&amp;"'),"</f>
+        <v>('Buscar',2,1,'aplicaciones/vistas/FBuscarSPAplicacion'),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar',2,1,'aplicaciones/vistas/FBuscarTPAplicacion'),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear',2,1,'aplicaciones/vistas/FCrearAplicacion'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar',2,2,'auxiliares/vistas/FBuscarElementoAuxiliar'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear',2,2,'auxiliares/vistas/FCrearElementoAuxiliar'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar base',2,3,'bases/vistas/FBuscarBase'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar columna',2,3,'bases/vistas/FBuscarCampo'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar SP',2,3,'bases/vistas/FBuscarProcedimiento'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar tabla',2,3,'bases/vistas/FBuscarTabla'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar vista',2,3,'bases/vistas/FBuscarVista'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>('Ver base',2,3,'bases/vistas/FConsultarBase'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>('Ver columna',2,3,'bases/vistas/FConsultarCampo'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>('Ver SP',2,3,'bases/vistas/FConsultarProcedimiento'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>('Ver tabla',2,3,'bases/vistas/FConsultarTabla'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>('Ver vista',2,3,'bases/vistas/FConsultarVista'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar',2,4,'comunicaciones/vistas/FBuscarComunicacion'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear',2,4,'comunicaciones/vistas/FCrearComunicacion'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar hijo',2,5,'dependencias/vistas/FBuscarActivoHijo'),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="B102" t="s">
-        <v>144</v>
-      </c>
-      <c r="C102">
-        <v>2</v>
-      </c>
-      <c r="D102">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar padre',2,5,'dependencias/vistas/FBuscarActivoPadre'),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear hijo',2,5,'dependencias/vistas/FCrearActivoHijo'),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear padre',2,5,'dependencias/vistas/FCrearActivoPadre'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
         <v>6</v>
       </c>
-      <c r="E102" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar',2,6,'firewalls/vistas/FBuscarFirewall'),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear',2,6,'firewalls/vistas/FCrearFirewall'),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar depto',2,7,'gerencias/vistas/FBuscarDepartamento'),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar empleado',2,7,'gerencias/vistas/FBuscarEmpleado'),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar gerencia',2,7,'gerencias/vistas/FBuscarGerencia'),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear depto',2,7,'gerencias/vistas/FCrearDepartamento'),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear empleado',2,7,'gerencias/vistas/FCrearEmpleado'),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear gerencia',2,7,'gerencias/vistas/FCrearGerencia'),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar',2,8,'hardwares/vistas/FBuscarHardware'),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear',2,8,'hardwares/vistas/FCrearHardware'),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar',2,9,'herramientas/vistas/FBuscarHerramienta'),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>('Consultar',2,9,'herramientas/vistas/FConsultarHerramienta'),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear',2,9,'herramientas/vistas/FCrearHerramienta'),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar',2,10,'instalaciones/vistas/FBuscarInstalacion'),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear',2,10,'instalaciones/vistas/FCrearInstalacion'),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>('Consultar historico',2,11,'inventarios/vistas/FConsultarHistorico'),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar',2,12,'lenguajes/vistas/FBuscarLenguaje'),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>('Ver',2,12,'lenguajes/vistas/FConsultarLenguaje'),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear',2,12,'lenguajes/vistas/FCrearLenguaje'),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>('Ver log',2,13,'actividades/vistas/FBuscarActividad'),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar',2,14,'perfiles/vistas/FBuscarPerfil'),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear',2,14,'perfiles/vistas/FCrearPerfil'),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar',2,15,'permisos/vistas/FBuscarPermiso'),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear',2,15,'permisos/vistas/FCrearPermiso'),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar',2,16,'personales/vistas/FBuscarPersonal'),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear',2,16,'personales/vistas/FCrearPersonal'),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar',2,17,'plataformas/vistas/FBuscarPlataformaSO'),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear',2,17,'plataformas/vistas/FCrearPlataformaSO'),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar lugar',2,18,'procesamientos/vistas/FBuscarLugarProcesamiento'),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar modo',2,18,'procesamientos/vistas/FBuscarModoProcesamiento'),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear lugar',2,18,'procesamientos/vistas/FCrearLugarProcesamiento'),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear modo',2,18,'procesamientos/vistas/FCrearModoProcesamiento'),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>19</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar',2,19,'procesos/vistas/FBuscarProceso'),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>79</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear',2,19,'procesos/vistas/FCrearProceso'),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>41</v>
       </c>
-      <c r="B103" t="s">
-        <v>146</v>
-      </c>
-      <c r="C103">
-        <v>2</v>
-      </c>
-      <c r="D103">
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar proveedor',2,20,'proveedores/vistas/FBuscarProveedor'),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar responsable',2,20,'proveedores/vistas/FBuscarResponsable'),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>134</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>('Ver proveedor',2,20,'proveedores/vistas/FConsultarProveedor'),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>('Ver responsable',2,20,'proveedores/vistas/FConsultarResponsable'),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear proveedor',2,20,'proveedores/vistas/FCrearProveedor'),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>98</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear responsable',2,20,'proveedores/vistas/FCrearResponsable'),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar',2,21,'servicios/vistas/FBuscarServicio'),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>('Crear',2,21,'servicios/vistas/FCrearServicio'),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>22</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>('Buscar',2,22,'servidores/vistas/FBuscarServidor'),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>22</v>
+      </c>
+      <c r="D66" t="s">
+        <v>60</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" ref="F66:F76" si="1">"('"&amp;A66&amp;"',"&amp;B66&amp;","&amp;C66&amp;",'"&amp;D66&amp;"'),"</f>
+        <v>('Consultar job',2,22,'servidores/vistas/FConsultarJob'),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>22</v>
+      </c>
+      <c r="D67" t="s">
+        <v>55</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="1"/>
+        <v>('Consultar',2,22,'servidores/vistas/FConsultarServidor'),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>22</v>
+      </c>
+      <c r="D68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="1"/>
+        <v>('Crear',2,22,'servidores/vistas/FCrearServidor'),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>23</v>
+      </c>
+      <c r="D69" t="s">
+        <v>46</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="1"/>
+        <v>('Buscar sitio',2,23,'sitios/vistas/FBuscarSitio'),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>23</v>
+      </c>
+      <c r="D70" t="s">
+        <v>100</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="1"/>
+        <v>('Crear sitio',2,23,'sitios/vistas/FCrearSitio'),</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>24</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="1"/>
+        <v>('Buscar',2,24,'switches/vistas/FBuscarSwitch'),</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>24</v>
+      </c>
+      <c r="D72" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="1"/>
+        <v>('Crear',2,24,'switches/vistas/FCrearSwitch'),</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>25</v>
+      </c>
+      <c r="D73" t="s">
         <v>6</v>
       </c>
-      <c r="E103" t="s">
-        <v>147</v>
+      <c r="F73" t="str">
+        <f t="shared" si="1"/>
+        <v>('Buscar',2,25,'usuarios/vistas/FBuscarUsuario'),</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>25</v>
+      </c>
+      <c r="D74" t="s">
+        <v>66</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="1"/>
+        <v>('Crear',2,25,'usuarios/vistas/FCrearUsuario'),</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>26</v>
+      </c>
+      <c r="D75" t="s">
+        <v>62</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="1"/>
+        <v>('Conversor fecha',2,26,'utilidades/vistas/FConvertirFechas'),</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>26</v>
+      </c>
+      <c r="D76" t="s">
+        <v>103</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="1"/>
+        <v>('Encriptador',2,26,'utilidades/vistas/FEncriptador'),</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="F1" t="str">
+        <f>"('"&amp;A1&amp;"',"&amp;B1&amp;","&amp;C1&amp;",''),"</f>
+        <v>('Aplicaciones',1,0,''),</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F26" si="0">"('"&amp;A2&amp;"',"&amp;B2&amp;","&amp;C2&amp;",''),"</f>
+        <v>('Auxiliares',1,0,''),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>('Bases',1,0,''),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>('Comunicaciones',1,0,''),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>('Dependencias',1,0,''),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>('Firewalls',1,0,''),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>('Gerencias',1,0,''),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>('Hardwares',1,0,''),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>('Herramientas',1,0,''),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>('Instalaciones',1,0,''),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>('Inventarios',1,0,''),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>('Lenguajes',1,0,''),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>('Log',1,0,''),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>('Perfiles',1,0,''),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>('Permisos',1,0,''),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>('Personal',1,0,''),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>('Plataformas',1,0,''),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>('Procesamientos',1,0,''),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>('Procesos',1,0,''),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>('Proveedores',1,0,''),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>('Servicios',1,0,''),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>('Servidores',1,0,''),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>('Sitios',1,0,''),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>('Switchs',1,0,''),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>('Usuarios',1,0,''),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>('Utilidades',1,0,''),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>